--- a/biology/Zoologie/Eunotoperla_kershawi/Eunotoperla_kershawi.xlsx
+++ b/biology/Zoologie/Eunotoperla_kershawi/Eunotoperla_kershawi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunotoperla kershawi est une espèce d'insectes plécoptères de la famille des Gripopterygidae, la seule du genre Eunotoperla[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eunotoperla kershawi est une espèce d'insectes plécoptères de la famille des Gripopterygidae, la seule du genre Eunotoperla.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique du Victoria en Australie.
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,7 +584,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de James Andrew Kershaw.
 </t>
@@ -599,7 +617,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tillyard, R. J. 1924 : New genera and species of Australian stone-flies (Order Perlaria). Transactions of the Royal Society of South Australia, vol. 48, p. 192-195 (texte intégral).</t>
         </is>
